--- a/dictionary.xlsx
+++ b/dictionary.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Nombre</t>
   </si>
@@ -35,6 +35,9 @@
     <t>Identificador único de cliente</t>
   </si>
   <si>
+    <t>Estado</t>
+  </si>
+  <si>
     <t>Estado donde vive el cliente</t>
   </si>
   <si>
@@ -53,49 +56,70 @@
     <t>Máximo número de minutos usados en el día</t>
   </si>
   <si>
+    <t>TotalMinsIntnl</t>
+  </si>
+  <si>
+    <t>TotalLlamadasIntnl</t>
+  </si>
+  <si>
+    <t>Número total de llamadas internacionales</t>
+  </si>
+  <si>
+    <t>TotalLlamadasCallCenter</t>
+  </si>
+  <si>
     <t xml:space="preserve">Descripción </t>
   </si>
   <si>
     <t>PlanInternacional</t>
   </si>
   <si>
+    <t>Número total de minutos en llamadas internacionales</t>
+  </si>
+  <si>
+    <t>Número total de llamadas al call center</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Indica si el cliente está vinculado o retirado</t>
+  </si>
+  <si>
     <t>Ciudad</t>
   </si>
   <si>
+    <t>PromMinUsadosDia</t>
+  </si>
+  <si>
+    <t>PromNumLlamadasDia</t>
+  </si>
+  <si>
+    <t>PromMinUsadosTarde</t>
+  </si>
+  <si>
+    <t>PromNumLlamadasTarde</t>
+  </si>
+  <si>
+    <t>PromMinUsadosNoche</t>
+  </si>
+  <si>
+    <t>PromNumLlamadasNoche</t>
+  </si>
+  <si>
+    <t>Promedio de minutos usados en la tarde</t>
+  </si>
+  <si>
+    <t>Promedio de minutos usados en la noche</t>
+  </si>
+  <si>
+    <t>Número promedio de llamadas hechas en la noche</t>
+  </si>
+  <si>
+    <t>Número Promedio de llamadas hechas en la tarde</t>
+  </si>
+  <si>
     <t>Antiguedad</t>
   </si>
   <si>
     <t>Antigüedad del cliente en la empresa en número de días</t>
-  </si>
-  <si>
-    <t>PromMinUsadosDia</t>
-  </si>
-  <si>
-    <t>PromNumLlamadasDia</t>
-  </si>
-  <si>
-    <t>PromMinUsadosTarde</t>
-  </si>
-  <si>
-    <t>Promedio de minutos usados en la tarde</t>
-  </si>
-  <si>
-    <t>PromNumLlamadasTarde</t>
-  </si>
-  <si>
-    <t>Número Promedio de llamadas hechas en la tarde</t>
-  </si>
-  <si>
-    <t>PromMinUsadosNoche</t>
-  </si>
-  <si>
-    <t>Promedio de minutos usados en la noche</t>
-  </si>
-  <si>
-    <t>PromNumLlamadasNoche</t>
-  </si>
-  <si>
-    <t>Número promedio de llamadas hechas en la noche</t>
   </si>
 </sst>
 </file>
@@ -431,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="A2" sqref="A2:C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -449,7 +473,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -468,10 +492,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -479,10 +503,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -490,10 +514,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -501,10 +525,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
         <v>6</v>
-      </c>
-      <c r="C6" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -512,10 +536,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -523,10 +547,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -534,10 +558,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -545,10 +569,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -556,10 +580,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -567,14 +591,58 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="B13" s="1"/>
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -858,13 +926,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B46721B-2DD7-489B-A27A-5445AC9794A4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1811100A-14B4-4BC0-A21F-59495422F578}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EBD4498B-7E04-4343-9C98-AEA6FB0026FD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E128B143-6372-43B0-9741-5AB49C3A3493}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF4F94B8-759C-44CD-AD31-EF980557EFDC}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8C3261-5391-4CF2-877A-449067A8420F}"/>
 </file>